--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1348,10 +1348,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1348,10 +1348,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1348,7 +1348,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>

--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1348,7 +1348,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>

--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1351,7 +1351,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1351,7 +1351,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Result_Report.xlsx
+++ b/src/test/resources/Result_Report.xlsx
@@ -1326,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
